--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bgao6\link\ReFrameWork\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EE48E26-0EFE-42BB-8C78-85AC33D6DA0D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82A1C0D1-EECD-4181-89D0-82125C08E4FD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -182,9 +182,6 @@
     <t>http://www.sha1-online.com/</t>
   </si>
   <si>
-    <t>https://acme-test.uipath.com/account/login</t>
-  </si>
-  <si>
     <t>System1_Credential</t>
   </si>
   <si>
@@ -195,6 +192,9 @@
   </si>
   <si>
     <t>SHA1_Online_URL</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/</t>
   </si>
 </sst>
 </file>
@@ -212,12 +212,14 @@
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -563,7 +565,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" showWhiteSpace="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -633,15 +635,15 @@
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>49</v>
@@ -649,10 +651,10 @@
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
